--- a/sprites/land/mapDesign.xlsx
+++ b/sprites/land/mapDesign.xlsx
@@ -41,7 +41,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +114,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -127,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -144,6 +156,8 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW65"/>
+  <dimension ref="A1:AW98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AS8" sqref="AS8"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5703125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1267,38 +1281,38 @@
       <c r="N18" s="2"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
-      <c r="AJ18" s="7"/>
-      <c r="AK18" s="7"/>
-      <c r="AL18" s="7"/>
-      <c r="AM18" s="7"/>
-      <c r="AN18" s="7"/>
-      <c r="AO18" s="7"/>
-      <c r="AP18" s="7"/>
-      <c r="AQ18" s="7"/>
-      <c r="AR18" s="7"/>
-      <c r="AS18" s="7"/>
-      <c r="AT18" s="7"/>
-      <c r="AU18" s="7"/>
-      <c r="AV18" s="7"/>
-      <c r="AW18" s="7"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+      <c r="AK18" s="16"/>
+      <c r="AL18" s="16"/>
+      <c r="AM18" s="16"/>
+      <c r="AN18" s="16"/>
+      <c r="AO18" s="16"/>
+      <c r="AP18" s="16"/>
+      <c r="AQ18" s="16"/>
+      <c r="AR18" s="16"/>
+      <c r="AS18" s="16"/>
+      <c r="AT18" s="16"/>
+      <c r="AU18" s="16"/>
+      <c r="AV18" s="16"/>
+      <c r="AW18" s="16"/>
     </row>
     <row r="19" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -1317,38 +1331,38 @@
       <c r="N19" s="8"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
-      <c r="AJ19" s="7"/>
-      <c r="AK19" s="7"/>
-      <c r="AL19" s="7"/>
-      <c r="AM19" s="7"/>
-      <c r="AN19" s="7"/>
-      <c r="AO19" s="7"/>
-      <c r="AP19" s="7"/>
-      <c r="AQ19" s="7"/>
-      <c r="AR19" s="7"/>
-      <c r="AS19" s="7"/>
-      <c r="AT19" s="7"/>
-      <c r="AU19" s="7"/>
-      <c r="AV19" s="7"/>
-      <c r="AW19" s="7"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="5"/>
+      <c r="AT19" s="5"/>
+      <c r="AU19" s="5"/>
+      <c r="AV19" s="5"/>
+      <c r="AW19" s="16"/>
     </row>
     <row r="20" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
@@ -1367,38 +1381,38 @@
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="7"/>
-      <c r="AK20" s="7"/>
-      <c r="AL20" s="7"/>
-      <c r="AM20" s="7"/>
-      <c r="AN20" s="7"/>
-      <c r="AO20" s="7"/>
-      <c r="AP20" s="7"/>
-      <c r="AQ20" s="7"/>
-      <c r="AR20" s="7"/>
-      <c r="AS20" s="7"/>
-      <c r="AT20" s="7"/>
-      <c r="AU20" s="7"/>
-      <c r="AV20" s="7"/>
-      <c r="AW20" s="7"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="5"/>
+      <c r="AS20" s="5"/>
+      <c r="AT20" s="5"/>
+      <c r="AU20" s="5"/>
+      <c r="AV20" s="5"/>
+      <c r="AW20" s="16"/>
     </row>
     <row r="21" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
@@ -1417,38 +1431,38 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="7"/>
-      <c r="AM21" s="7"/>
-      <c r="AN21" s="7"/>
-      <c r="AO21" s="7"/>
-      <c r="AP21" s="7"/>
-      <c r="AQ21" s="7"/>
-      <c r="AR21" s="7"/>
-      <c r="AS21" s="7"/>
-      <c r="AT21" s="7"/>
-      <c r="AU21" s="7"/>
-      <c r="AV21" s="7"/>
-      <c r="AW21" s="7"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="5"/>
+      <c r="AT21" s="5"/>
+      <c r="AU21" s="5"/>
+      <c r="AV21" s="5"/>
+      <c r="AW21" s="16"/>
     </row>
     <row r="22" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
@@ -1467,38 +1481,38 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="7"/>
-      <c r="AK22" s="7"/>
-      <c r="AL22" s="7"/>
-      <c r="AM22" s="7"/>
-      <c r="AN22" s="7"/>
-      <c r="AO22" s="7"/>
-      <c r="AP22" s="7"/>
-      <c r="AQ22" s="7"/>
-      <c r="AR22" s="7"/>
-      <c r="AS22" s="7"/>
-      <c r="AT22" s="7"/>
-      <c r="AU22" s="7"/>
-      <c r="AV22" s="7"/>
-      <c r="AW22" s="7"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="5"/>
+      <c r="AW22" s="16"/>
     </row>
     <row r="23" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -1517,38 +1531,38 @@
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="6"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
-      <c r="AK23" s="7"/>
-      <c r="AL23" s="7"/>
-      <c r="AM23" s="7"/>
-      <c r="AN23" s="7"/>
-      <c r="AO23" s="7"/>
-      <c r="AP23" s="7"/>
-      <c r="AQ23" s="7"/>
-      <c r="AR23" s="7"/>
-      <c r="AS23" s="7"/>
-      <c r="AT23" s="7"/>
-      <c r="AU23" s="7"/>
-      <c r="AV23" s="7"/>
-      <c r="AW23" s="7"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="5"/>
+      <c r="AT23" s="5"/>
+      <c r="AU23" s="5"/>
+      <c r="AV23" s="5"/>
+      <c r="AW23" s="16"/>
     </row>
     <row r="24" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -1567,38 +1581,38 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="8"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
-      <c r="AJ24" s="7"/>
-      <c r="AK24" s="7"/>
-      <c r="AL24" s="7"/>
-      <c r="AM24" s="7"/>
-      <c r="AN24" s="7"/>
-      <c r="AO24" s="7"/>
-      <c r="AP24" s="7"/>
-      <c r="AQ24" s="7"/>
-      <c r="AR24" s="7"/>
-      <c r="AS24" s="7"/>
-      <c r="AT24" s="7"/>
-      <c r="AU24" s="7"/>
-      <c r="AV24" s="7"/>
-      <c r="AW24" s="7"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="5"/>
+      <c r="AU24" s="5"/>
+      <c r="AV24" s="5"/>
+      <c r="AW24" s="16"/>
     </row>
     <row r="25" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -1617,38 +1631,38 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="7"/>
-      <c r="AK25" s="7"/>
-      <c r="AL25" s="7"/>
-      <c r="AM25" s="7"/>
-      <c r="AN25" s="7"/>
-      <c r="AO25" s="7"/>
-      <c r="AP25" s="7"/>
-      <c r="AQ25" s="7"/>
-      <c r="AR25" s="7"/>
-      <c r="AS25" s="7"/>
-      <c r="AT25" s="7"/>
-      <c r="AU25" s="7"/>
-      <c r="AV25" s="7"/>
-      <c r="AW25" s="7"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="5"/>
+      <c r="AR25" s="5"/>
+      <c r="AS25" s="5"/>
+      <c r="AT25" s="5"/>
+      <c r="AU25" s="5"/>
+      <c r="AV25" s="5"/>
+      <c r="AW25" s="16"/>
     </row>
     <row r="26" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -1667,38 +1681,38 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="7"/>
-      <c r="AJ26" s="7"/>
-      <c r="AK26" s="7"/>
-      <c r="AL26" s="7"/>
-      <c r="AM26" s="7"/>
-      <c r="AN26" s="7"/>
-      <c r="AO26" s="7"/>
-      <c r="AP26" s="7"/>
-      <c r="AQ26" s="7"/>
-      <c r="AR26" s="7"/>
-      <c r="AS26" s="7"/>
-      <c r="AT26" s="7"/>
-      <c r="AU26" s="7"/>
-      <c r="AV26" s="7"/>
-      <c r="AW26" s="7"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="5"/>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="5"/>
+      <c r="AT26" s="5"/>
+      <c r="AU26" s="5"/>
+      <c r="AV26" s="5"/>
+      <c r="AW26" s="16"/>
     </row>
     <row r="27" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
@@ -1717,38 +1731,38 @@
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="2"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="7"/>
-      <c r="AJ27" s="7"/>
-      <c r="AK27" s="7"/>
-      <c r="AL27" s="7"/>
-      <c r="AM27" s="7"/>
-      <c r="AN27" s="7"/>
-      <c r="AO27" s="7"/>
-      <c r="AP27" s="7"/>
-      <c r="AQ27" s="7"/>
-      <c r="AR27" s="7"/>
-      <c r="AS27" s="7"/>
-      <c r="AT27" s="7"/>
-      <c r="AU27" s="7"/>
-      <c r="AV27" s="7"/>
-      <c r="AW27" s="7"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="5"/>
+      <c r="AR27" s="5"/>
+      <c r="AS27" s="5"/>
+      <c r="AT27" s="5"/>
+      <c r="AU27" s="5"/>
+      <c r="AV27" s="5"/>
+      <c r="AW27" s="16"/>
     </row>
     <row r="28" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
@@ -1767,38 +1781,38 @@
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="7"/>
-      <c r="AH28" s="7"/>
-      <c r="AI28" s="7"/>
-      <c r="AJ28" s="7"/>
-      <c r="AK28" s="7"/>
-      <c r="AL28" s="7"/>
-      <c r="AM28" s="7"/>
-      <c r="AN28" s="7"/>
-      <c r="AO28" s="7"/>
-      <c r="AP28" s="7"/>
-      <c r="AQ28" s="7"/>
-      <c r="AR28" s="7"/>
-      <c r="AS28" s="7"/>
-      <c r="AT28" s="7"/>
-      <c r="AU28" s="7"/>
-      <c r="AV28" s="7"/>
-      <c r="AW28" s="7"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="5"/>
+      <c r="AV28" s="5"/>
+      <c r="AW28" s="16"/>
     </row>
     <row r="29" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
@@ -1817,38 +1831,38 @@
       <c r="N29" s="8"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="7"/>
-      <c r="AE29" s="7"/>
-      <c r="AF29" s="7"/>
-      <c r="AG29" s="7"/>
-      <c r="AH29" s="7"/>
-      <c r="AI29" s="7"/>
-      <c r="AJ29" s="7"/>
-      <c r="AK29" s="7"/>
-      <c r="AL29" s="7"/>
-      <c r="AM29" s="7"/>
-      <c r="AN29" s="7"/>
-      <c r="AO29" s="7"/>
-      <c r="AP29" s="7"/>
-      <c r="AQ29" s="7"/>
-      <c r="AR29" s="7"/>
-      <c r="AS29" s="7"/>
-      <c r="AT29" s="7"/>
-      <c r="AU29" s="7"/>
-      <c r="AV29" s="7"/>
-      <c r="AW29" s="7"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="5"/>
+      <c r="AS29" s="5"/>
+      <c r="AT29" s="5"/>
+      <c r="AU29" s="5"/>
+      <c r="AV29" s="5"/>
+      <c r="AW29" s="16"/>
     </row>
     <row r="30" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
@@ -1867,38 +1881,38 @@
       <c r="N30" s="5"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="7"/>
-      <c r="AI30" s="7"/>
-      <c r="AJ30" s="7"/>
-      <c r="AK30" s="7"/>
-      <c r="AL30" s="7"/>
-      <c r="AM30" s="7"/>
-      <c r="AN30" s="7"/>
-      <c r="AO30" s="7"/>
-      <c r="AP30" s="7"/>
-      <c r="AQ30" s="7"/>
-      <c r="AR30" s="7"/>
-      <c r="AS30" s="7"/>
-      <c r="AT30" s="7"/>
-      <c r="AU30" s="7"/>
-      <c r="AV30" s="7"/>
-      <c r="AW30" s="7"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="5"/>
+      <c r="AQ30" s="5"/>
+      <c r="AR30" s="5"/>
+      <c r="AS30" s="5"/>
+      <c r="AT30" s="5"/>
+      <c r="AU30" s="5"/>
+      <c r="AV30" s="5"/>
+      <c r="AW30" s="16"/>
     </row>
     <row r="31" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
@@ -1917,38 +1931,38 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="7"/>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="7"/>
-      <c r="AJ31" s="7"/>
-      <c r="AK31" s="7"/>
-      <c r="AL31" s="7"/>
-      <c r="AM31" s="7"/>
-      <c r="AN31" s="7"/>
-      <c r="AO31" s="7"/>
-      <c r="AP31" s="7"/>
-      <c r="AQ31" s="7"/>
-      <c r="AR31" s="7"/>
-      <c r="AS31" s="7"/>
-      <c r="AT31" s="7"/>
-      <c r="AU31" s="7"/>
-      <c r="AV31" s="7"/>
-      <c r="AW31" s="7"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="5"/>
+      <c r="AQ31" s="5"/>
+      <c r="AR31" s="5"/>
+      <c r="AS31" s="5"/>
+      <c r="AT31" s="5"/>
+      <c r="AU31" s="5"/>
+      <c r="AV31" s="5"/>
+      <c r="AW31" s="16"/>
     </row>
     <row r="32" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
@@ -1967,74 +1981,74 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="7"/>
-      <c r="AD32" s="7"/>
-      <c r="AE32" s="7"/>
-      <c r="AF32" s="7"/>
-      <c r="AG32" s="7"/>
-      <c r="AH32" s="7"/>
-      <c r="AI32" s="7"/>
-      <c r="AJ32" s="7"/>
-      <c r="AK32" s="7"/>
-      <c r="AL32" s="7"/>
-      <c r="AM32" s="7"/>
-      <c r="AN32" s="7"/>
-      <c r="AO32" s="7"/>
-      <c r="AP32" s="7"/>
-      <c r="AQ32" s="7"/>
-      <c r="AR32" s="7"/>
-      <c r="AS32" s="7"/>
-      <c r="AT32" s="7"/>
-      <c r="AU32" s="7"/>
-      <c r="AV32" s="7"/>
-      <c r="AW32" s="7"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="5"/>
+      <c r="AR32" s="5"/>
+      <c r="AS32" s="5"/>
+      <c r="AT32" s="5"/>
+      <c r="AU32" s="5"/>
+      <c r="AV32" s="5"/>
+      <c r="AW32" s="16"/>
     </row>
     <row r="33" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="7"/>
-      <c r="AD33" s="7"/>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="7"/>
-      <c r="AH33" s="7"/>
-      <c r="AI33" s="7"/>
-      <c r="AJ33" s="7"/>
-      <c r="AK33" s="7"/>
-      <c r="AL33" s="7"/>
-      <c r="AM33" s="7"/>
-      <c r="AN33" s="7"/>
-      <c r="AO33" s="7"/>
-      <c r="AP33" s="7"/>
-      <c r="AQ33" s="7"/>
-      <c r="AR33" s="7"/>
-      <c r="AS33" s="7"/>
-      <c r="AT33" s="7"/>
-      <c r="AU33" s="7"/>
-      <c r="AV33" s="7"/>
-      <c r="AW33" s="7"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="16"/>
+      <c r="AH33" s="16"/>
+      <c r="AI33" s="16"/>
+      <c r="AJ33" s="16"/>
+      <c r="AK33" s="16"/>
+      <c r="AL33" s="16"/>
+      <c r="AM33" s="16"/>
+      <c r="AN33" s="16"/>
+      <c r="AO33" s="16"/>
+      <c r="AP33" s="16"/>
+      <c r="AQ33" s="16"/>
+      <c r="AR33" s="16"/>
+      <c r="AS33" s="16"/>
+      <c r="AT33" s="16"/>
+      <c r="AU33" s="16"/>
+      <c r="AV33" s="16"/>
+      <c r="AW33" s="16"/>
     </row>
     <row r="34" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
@@ -2612,6 +2626,582 @@
       <c r="O65" s="7"/>
       <c r="P65" s="7"/>
     </row>
+    <row r="67" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+    </row>
+    <row r="68" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="7"/>
+    </row>
+    <row r="69" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="7"/>
+    </row>
+    <row r="70" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="7"/>
+    </row>
+    <row r="71" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="7"/>
+    </row>
+    <row r="72" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="7"/>
+    </row>
+    <row r="73" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="7"/>
+    </row>
+    <row r="74" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="7"/>
+    </row>
+    <row r="75" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="7"/>
+    </row>
+    <row r="76" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="7"/>
+    </row>
+    <row r="77" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="7"/>
+    </row>
+    <row r="78" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="7"/>
+    </row>
+    <row r="79" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="7"/>
+    </row>
+    <row r="80" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="7"/>
+    </row>
+    <row r="81" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="7"/>
+    </row>
+    <row r="82" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="7"/>
+    </row>
+    <row r="83" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="7"/>
+    </row>
+    <row r="84" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="7"/>
+    </row>
+    <row r="85" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="7"/>
+    </row>
+    <row r="86" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="7"/>
+    </row>
+    <row r="87" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="7"/>
+    </row>
+    <row r="88" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="7"/>
+    </row>
+    <row r="89" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="7"/>
+    </row>
+    <row r="90" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="7"/>
+    </row>
+    <row r="91" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="7"/>
+    </row>
+    <row r="92" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="7"/>
+    </row>
+    <row r="93" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="7"/>
+    </row>
+    <row r="94" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="7"/>
+    </row>
+    <row r="95" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="7"/>
+    </row>
+    <row r="96" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="7"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="7"/>
+    </row>
+    <row r="97" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="7"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="7"/>
+    </row>
+    <row r="98" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sprites/land/mapDesign.xlsx
+++ b/sprites/land/mapDesign.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SS08\S231 Students$\S300007510\Documents\GitHub\FireEmblem\sprites\land\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\GitHub\FireEmblem\sprites\land\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,7 +122,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -139,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -157,7 +169,11 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L81" sqref="L81"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5703125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1281,38 +1297,38 @@
       <c r="N18" s="2"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="16"/>
-      <c r="AL18" s="16"/>
-      <c r="AM18" s="16"/>
-      <c r="AN18" s="16"/>
-      <c r="AO18" s="16"/>
-      <c r="AP18" s="16"/>
-      <c r="AQ18" s="16"/>
-      <c r="AR18" s="16"/>
-      <c r="AS18" s="16"/>
-      <c r="AT18" s="16"/>
-      <c r="AU18" s="16"/>
-      <c r="AV18" s="16"/>
-      <c r="AW18" s="16"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="5"/>
+      <c r="AS18" s="5"/>
+      <c r="AT18" s="5"/>
+      <c r="AU18" s="5"/>
+      <c r="AV18" s="5"/>
+      <c r="AW18" s="5"/>
     </row>
     <row r="19" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -1331,7 +1347,7 @@
       <c r="N19" s="8"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="R19" s="16"/>
+      <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
@@ -1362,7 +1378,7 @@
       <c r="AT19" s="5"/>
       <c r="AU19" s="5"/>
       <c r="AV19" s="5"/>
-      <c r="AW19" s="16"/>
+      <c r="AW19" s="5"/>
     </row>
     <row r="20" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
@@ -1381,16 +1397,16 @@
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="R20" s="16"/>
+      <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
+      <c r="U20" s="16"/>
       <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
+      <c r="W20" s="16"/>
       <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
+      <c r="Y20" s="16"/>
       <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
+      <c r="AA20" s="16"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
@@ -1402,13 +1418,13 @@
       <c r="AJ20" s="5"/>
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
+      <c r="AM20" s="16"/>
       <c r="AN20" s="5"/>
-      <c r="AO20" s="5"/>
+      <c r="AO20" s="16"/>
       <c r="AP20" s="5"/>
-      <c r="AQ20" s="5"/>
+      <c r="AQ20" s="16"/>
       <c r="AR20" s="5"/>
-      <c r="AS20" s="5"/>
+      <c r="AS20" s="16"/>
       <c r="AT20" s="5"/>
       <c r="AU20" s="5"/>
       <c r="AV20" s="5"/>
@@ -1431,38 +1447,38 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="R21" s="16"/>
+      <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
+      <c r="T21" s="16"/>
       <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
+      <c r="V21" s="16"/>
       <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
+      <c r="X21" s="16"/>
       <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
+      <c r="Z21" s="16"/>
       <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
+      <c r="AB21" s="16"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
+      <c r="AF21" s="16"/>
       <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
+      <c r="AH21" s="16"/>
       <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
+      <c r="AJ21" s="16"/>
       <c r="AK21" s="5"/>
       <c r="AL21" s="5"/>
       <c r="AM21" s="5"/>
-      <c r="AN21" s="5"/>
+      <c r="AN21" s="16"/>
       <c r="AO21" s="5"/>
-      <c r="AP21" s="5"/>
+      <c r="AP21" s="16"/>
       <c r="AQ21" s="5"/>
-      <c r="AR21" s="5"/>
+      <c r="AR21" s="16"/>
       <c r="AS21" s="5"/>
       <c r="AT21" s="5"/>
       <c r="AU21" s="5"/>
-      <c r="AV21" s="5"/>
-      <c r="AW21" s="16"/>
+      <c r="AV21" s="16"/>
+      <c r="AW21" s="5"/>
     </row>
     <row r="22" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
@@ -1481,7 +1497,7 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
-      <c r="R22" s="16"/>
+      <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -1490,15 +1506,15 @@
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
+      <c r="AA22" s="16"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
+      <c r="AE22" s="16"/>
       <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
+      <c r="AG22" s="16"/>
       <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
+      <c r="AI22" s="16"/>
       <c r="AJ22" s="5"/>
       <c r="AK22" s="5"/>
       <c r="AL22" s="5"/>
@@ -1506,9 +1522,9 @@
       <c r="AN22" s="5"/>
       <c r="AO22" s="5"/>
       <c r="AP22" s="5"/>
-      <c r="AQ22" s="5"/>
+      <c r="AQ22" s="16"/>
       <c r="AR22" s="5"/>
-      <c r="AS22" s="5"/>
+      <c r="AS22" s="16"/>
       <c r="AT22" s="5"/>
       <c r="AU22" s="5"/>
       <c r="AV22" s="5"/>
@@ -1531,9 +1547,9 @@
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="6"/>
-      <c r="R23" s="16"/>
+      <c r="R23" s="5"/>
       <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
+      <c r="T23" s="16"/>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
@@ -1541,7 +1557,7 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
+      <c r="AB23" s="16"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
@@ -1557,12 +1573,12 @@
       <c r="AO23" s="5"/>
       <c r="AP23" s="5"/>
       <c r="AQ23" s="5"/>
-      <c r="AR23" s="5"/>
+      <c r="AR23" s="16"/>
       <c r="AS23" s="5"/>
       <c r="AT23" s="5"/>
       <c r="AU23" s="5"/>
-      <c r="AV23" s="5"/>
-      <c r="AW23" s="16"/>
+      <c r="AV23" s="16"/>
+      <c r="AW23" s="5"/>
     </row>
     <row r="24" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -1581,13 +1597,13 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="8"/>
-      <c r="R24" s="16"/>
+      <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="11"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
@@ -1600,9 +1616,9 @@
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
+      <c r="AK24" s="16"/>
       <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
+      <c r="AM24" s="16"/>
       <c r="AN24" s="5"/>
       <c r="AO24" s="5"/>
       <c r="AP24" s="5"/>
@@ -1636,8 +1652,8 @@
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
@@ -1649,11 +1665,11 @@
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
+      <c r="AJ25" s="16"/>
       <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
+      <c r="AL25" s="16"/>
       <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
+      <c r="AN25" s="16"/>
       <c r="AO25" s="5"/>
       <c r="AP25" s="5"/>
       <c r="AQ25" s="5"/>
@@ -1661,8 +1677,8 @@
       <c r="AS25" s="5"/>
       <c r="AT25" s="5"/>
       <c r="AU25" s="5"/>
-      <c r="AV25" s="5"/>
-      <c r="AW25" s="16"/>
+      <c r="AV25" s="16"/>
+      <c r="AW25" s="5"/>
     </row>
     <row r="26" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -1681,19 +1697,19 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-      <c r="R26" s="16"/>
+      <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="16"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
+      <c r="AD26" s="16"/>
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
       <c r="AG26" s="5"/>
@@ -1702,13 +1718,13 @@
       <c r="AJ26" s="5"/>
       <c r="AK26" s="5"/>
       <c r="AL26" s="5"/>
-      <c r="AM26" s="5"/>
+      <c r="AM26" s="16"/>
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
       <c r="AP26" s="5"/>
-      <c r="AQ26" s="5"/>
+      <c r="AQ26" s="16"/>
       <c r="AR26" s="5"/>
-      <c r="AS26" s="5"/>
+      <c r="AS26" s="16"/>
       <c r="AT26" s="5"/>
       <c r="AU26" s="5"/>
       <c r="AV26" s="5"/>
@@ -1731,20 +1747,20 @@
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="2"/>
-      <c r="R27" s="16"/>
+      <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
+      <c r="AC27" s="16"/>
       <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
+      <c r="AE27" s="16"/>
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
@@ -1753,16 +1769,16 @@
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
       <c r="AM27" s="5"/>
-      <c r="AN27" s="5"/>
+      <c r="AN27" s="16"/>
       <c r="AO27" s="5"/>
       <c r="AP27" s="5"/>
       <c r="AQ27" s="5"/>
-      <c r="AR27" s="5"/>
+      <c r="AR27" s="16"/>
       <c r="AS27" s="5"/>
       <c r="AT27" s="5"/>
       <c r="AU27" s="5"/>
-      <c r="AV27" s="5"/>
-      <c r="AW27" s="16"/>
+      <c r="AV27" s="16"/>
+      <c r="AW27" s="5"/>
     </row>
     <row r="28" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
@@ -1786,8 +1802,8 @@
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
@@ -1797,9 +1813,9 @@
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
       <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
+      <c r="AH28" s="16"/>
       <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
+      <c r="AJ28" s="16"/>
       <c r="AK28" s="5"/>
       <c r="AL28" s="5"/>
       <c r="AM28" s="5"/>
@@ -1831,12 +1847,12 @@
       <c r="N29" s="8"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="R29" s="16"/>
+      <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
+      <c r="W29" s="11"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
@@ -1846,9 +1862,9 @@
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
+      <c r="AG29" s="16"/>
       <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
+      <c r="AI29" s="16"/>
       <c r="AJ29" s="5"/>
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
@@ -1861,8 +1877,8 @@
       <c r="AS29" s="5"/>
       <c r="AT29" s="5"/>
       <c r="AU29" s="5"/>
-      <c r="AV29" s="5"/>
-      <c r="AW29" s="16"/>
+      <c r="AV29" s="16"/>
+      <c r="AW29" s="5"/>
     </row>
     <row r="30" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
@@ -1881,34 +1897,34 @@
       <c r="N30" s="5"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
-      <c r="R30" s="16"/>
+      <c r="R30" s="5"/>
       <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
+      <c r="T30" s="16"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
+      <c r="Z30" s="16"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
+      <c r="AC30" s="16"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
+      <c r="AH30" s="16"/>
       <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
+      <c r="AJ30" s="16"/>
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
-      <c r="AM30" s="5"/>
+      <c r="AM30" s="16"/>
       <c r="AN30" s="5"/>
       <c r="AO30" s="5"/>
       <c r="AP30" s="5"/>
-      <c r="AQ30" s="5"/>
+      <c r="AQ30" s="16"/>
       <c r="AR30" s="5"/>
-      <c r="AS30" s="5"/>
+      <c r="AS30" s="16"/>
       <c r="AT30" s="5"/>
       <c r="AU30" s="5"/>
       <c r="AV30" s="5"/>
@@ -1931,10 +1947,10 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
-      <c r="R31" s="16"/>
+      <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
+      <c r="U31" s="16"/>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
@@ -1957,12 +1973,12 @@
       <c r="AO31" s="5"/>
       <c r="AP31" s="5"/>
       <c r="AQ31" s="5"/>
-      <c r="AR31" s="5"/>
+      <c r="AR31" s="16"/>
       <c r="AS31" s="5"/>
       <c r="AT31" s="5"/>
       <c r="AU31" s="5"/>
-      <c r="AV31" s="5"/>
-      <c r="AW31" s="16"/>
+      <c r="AV31" s="16"/>
+      <c r="AW31" s="5"/>
     </row>
     <row r="32" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
@@ -1981,7 +1997,7 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
-      <c r="R32" s="16"/>
+      <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
@@ -2012,619 +2028,619 @@
       <c r="AT32" s="5"/>
       <c r="AU32" s="5"/>
       <c r="AV32" s="5"/>
-      <c r="AW32" s="16"/>
+      <c r="AW32" s="5"/>
     </row>
     <row r="33" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
-      <c r="AC33" s="16"/>
-      <c r="AD33" s="16"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="16"/>
-      <c r="AG33" s="16"/>
-      <c r="AH33" s="16"/>
-      <c r="AI33" s="16"/>
-      <c r="AJ33" s="16"/>
-      <c r="AK33" s="16"/>
-      <c r="AL33" s="16"/>
-      <c r="AM33" s="16"/>
-      <c r="AN33" s="16"/>
-      <c r="AO33" s="16"/>
-      <c r="AP33" s="16"/>
-      <c r="AQ33" s="16"/>
-      <c r="AR33" s="16"/>
-      <c r="AS33" s="16"/>
-      <c r="AT33" s="16"/>
-      <c r="AU33" s="16"/>
-      <c r="AV33" s="16"/>
-      <c r="AW33" s="16"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
     </row>
     <row r="34" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
     </row>
     <row r="35" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
     </row>
     <row r="36" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
     </row>
     <row r="37" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
     </row>
     <row r="38" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
     </row>
     <row r="39" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
     </row>
     <row r="40" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
     </row>
     <row r="41" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
     </row>
     <row r="42" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
     </row>
     <row r="43" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
     </row>
     <row r="44" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
     </row>
     <row r="45" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
     </row>
     <row r="46" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
     </row>
     <row r="47" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
     </row>
     <row r="48" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
     </row>
     <row r="49" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
     </row>
     <row r="50" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
     </row>
     <row r="51" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
     </row>
     <row r="52" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
     </row>
     <row r="53" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
     </row>
     <row r="54" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
     </row>
     <row r="55" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
     </row>
     <row r="56" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
     </row>
     <row r="57" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
     </row>
     <row r="58" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
     </row>
     <row r="59" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
     </row>
     <row r="60" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
     </row>
     <row r="61" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
     </row>
     <row r="62" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
     </row>
     <row r="63" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
     </row>
     <row r="64" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
     </row>
     <row r="65" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
     </row>
     <row r="67" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
@@ -2646,542 +2662,542 @@
     </row>
     <row r="68" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
       <c r="P68" s="7"/>
     </row>
     <row r="69" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="17"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
       <c r="P69" s="7"/>
     </row>
     <row r="70" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
-      <c r="B70" s="17"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="7"/>
-      <c r="D70" s="17"/>
+      <c r="D70" s="7"/>
       <c r="E70" s="7"/>
-      <c r="F70" s="17"/>
+      <c r="F70" s="7"/>
       <c r="G70" s="7"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
       <c r="J70" s="7"/>
-      <c r="K70" s="17"/>
+      <c r="K70" s="7"/>
       <c r="L70" s="7"/>
-      <c r="M70" s="17"/>
+      <c r="M70" s="7"/>
       <c r="N70" s="7"/>
-      <c r="O70" s="17"/>
+      <c r="O70" s="18"/>
       <c r="P70" s="7"/>
     </row>
     <row r="71" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
-      <c r="B71" s="17"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
       <c r="J71" s="17"/>
       <c r="K71" s="17"/>
       <c r="L71" s="17"/>
       <c r="M71" s="17"/>
       <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
+      <c r="O71" s="18"/>
       <c r="P71" s="7"/>
     </row>
     <row r="72" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="18"/>
       <c r="P72" s="7"/>
     </row>
     <row r="73" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="18"/>
       <c r="P73" s="7"/>
     </row>
     <row r="74" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="18"/>
       <c r="P74" s="7"/>
     </row>
     <row r="75" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="18"/>
       <c r="P75" s="7"/>
     </row>
     <row r="76" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="18"/>
       <c r="P76" s="7"/>
     </row>
     <row r="77" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="18"/>
       <c r="P77" s="7"/>
     </row>
     <row r="78" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
       <c r="P78" s="7"/>
     </row>
     <row r="79" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="7"/>
       <c r="P79" s="7"/>
     </row>
     <row r="80" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="7"/>
       <c r="P80" s="7"/>
     </row>
     <row r="81" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
       <c r="P81" s="7"/>
     </row>
     <row r="82" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="18"/>
       <c r="P82" s="7"/>
     </row>
     <row r="83" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="18"/>
       <c r="P83" s="7"/>
     </row>
     <row r="84" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="18"/>
       <c r="P84" s="7"/>
     </row>
     <row r="85" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="7"/>
       <c r="P85" s="7"/>
     </row>
     <row r="86" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="7"/>
       <c r="P86" s="7"/>
     </row>
     <row r="87" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="18"/>
+      <c r="O87" s="18"/>
       <c r="P87" s="7"/>
     </row>
     <row r="88" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="18"/>
       <c r="P88" s="7"/>
     </row>
     <row r="89" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="18"/>
       <c r="P89" s="7"/>
     </row>
     <row r="90" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="18"/>
       <c r="P90" s="7"/>
     </row>
     <row r="91" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="18"/>
       <c r="P91" s="7"/>
     </row>
     <row r="92" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="18"/>
       <c r="P92" s="7"/>
     </row>
     <row r="93" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="18"/>
       <c r="P93" s="7"/>
     </row>
     <row r="94" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="18"/>
       <c r="P94" s="7"/>
     </row>
     <row r="95" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="18"/>
       <c r="P95" s="7"/>
     </row>
     <row r="96" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="18"/>
+      <c r="O96" s="18"/>
       <c r="P96" s="7"/>
     </row>
     <row r="97" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
       <c r="P97" s="7"/>
     </row>
     <row r="98" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">

--- a/sprites/land/mapDesign.xlsx
+++ b/sprites/land/mapDesign.xlsx
@@ -454,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW98"/>
+  <dimension ref="A1:AY98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD29" sqref="AD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5703125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1262,7 +1262,7 @@
       <c r="AV16" s="4"/>
       <c r="AW16" s="4"/>
     </row>
-    <row r="17" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="8"/>
@@ -1280,7 +1280,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1297,40 +1297,42 @@
       <c r="N18" s="2"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
+      <c r="U18" s="20"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
+      <c r="Z18" s="20"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
+      <c r="AE18" s="20"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
+      <c r="AJ18" s="20"/>
       <c r="AK18" s="5"/>
       <c r="AL18" s="5"/>
       <c r="AM18" s="5"/>
       <c r="AN18" s="5"/>
-      <c r="AO18" s="5"/>
+      <c r="AO18" s="20"/>
       <c r="AP18" s="5"/>
       <c r="AQ18" s="5"/>
       <c r="AR18" s="5"/>
       <c r="AS18" s="5"/>
-      <c r="AT18" s="5"/>
+      <c r="AT18" s="20"/>
       <c r="AU18" s="5"/>
-      <c r="AV18" s="5"/>
-      <c r="AW18" s="5"/>
-    </row>
-    <row r="19" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV18" s="16"/>
+      <c r="AW18" s="16"/>
+      <c r="AX18" s="12"/>
+      <c r="AY18" s="12"/>
+    </row>
+    <row r="19" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1347,9 +1349,9 @@
       <c r="N19" s="8"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
@@ -1372,15 +1374,17 @@
       <c r="AN19" s="5"/>
       <c r="AO19" s="5"/>
       <c r="AP19" s="5"/>
-      <c r="AQ19" s="5"/>
-      <c r="AR19" s="5"/>
-      <c r="AS19" s="5"/>
+      <c r="AQ19" s="16"/>
+      <c r="AR19" s="16"/>
+      <c r="AS19" s="16"/>
       <c r="AT19" s="5"/>
-      <c r="AU19" s="5"/>
-      <c r="AV19" s="5"/>
-      <c r="AW19" s="5"/>
-    </row>
-    <row r="20" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU19" s="16"/>
+      <c r="AV19" s="16"/>
+      <c r="AW19" s="16"/>
+      <c r="AX19" s="12"/>
+      <c r="AY19" s="12"/>
+    </row>
+    <row r="20" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1397,16 +1401,16 @@
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="16"/>
+      <c r="U20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="16"/>
-      <c r="X20" s="5"/>
+      <c r="X20" s="16"/>
       <c r="Y20" s="16"/>
       <c r="Z20" s="5"/>
-      <c r="AA20" s="16"/>
+      <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
@@ -1418,19 +1422,21 @@
       <c r="AJ20" s="5"/>
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
-      <c r="AM20" s="16"/>
+      <c r="AM20" s="5"/>
       <c r="AN20" s="5"/>
-      <c r="AO20" s="16"/>
-      <c r="AP20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="16"/>
       <c r="AQ20" s="16"/>
-      <c r="AR20" s="5"/>
+      <c r="AR20" s="16"/>
       <c r="AS20" s="16"/>
-      <c r="AT20" s="5"/>
+      <c r="AT20" s="16"/>
       <c r="AU20" s="5"/>
-      <c r="AV20" s="5"/>
+      <c r="AV20" s="16"/>
       <c r="AW20" s="16"/>
-    </row>
-    <row r="21" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AX20" s="12"/>
+      <c r="AY20" s="12"/>
+    </row>
+    <row r="21" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1447,40 +1453,42 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="R21" s="5"/>
+      <c r="R21" s="20"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="16"/>
+      <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="16"/>
-      <c r="W21" s="5"/>
+      <c r="W21" s="16"/>
       <c r="X21" s="16"/>
-      <c r="Y21" s="5"/>
+      <c r="Y21" s="16"/>
       <c r="Z21" s="16"/>
       <c r="AA21" s="5"/>
-      <c r="AB21" s="16"/>
+      <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
-      <c r="AF21" s="16"/>
+      <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
-      <c r="AH21" s="16"/>
+      <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
-      <c r="AJ21" s="16"/>
+      <c r="AJ21" s="5"/>
       <c r="AK21" s="5"/>
       <c r="AL21" s="5"/>
       <c r="AM21" s="5"/>
-      <c r="AN21" s="16"/>
+      <c r="AN21" s="5"/>
       <c r="AO21" s="5"/>
-      <c r="AP21" s="16"/>
-      <c r="AQ21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="16"/>
       <c r="AR21" s="16"/>
-      <c r="AS21" s="5"/>
+      <c r="AS21" s="16"/>
       <c r="AT21" s="5"/>
       <c r="AU21" s="5"/>
-      <c r="AV21" s="16"/>
-      <c r="AW21" s="5"/>
-    </row>
-    <row r="22" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV21" s="5"/>
+      <c r="AW21" s="20"/>
+      <c r="AX21" s="12"/>
+      <c r="AY21" s="12"/>
+    </row>
+    <row r="22" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1497,24 +1505,24 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
       <c r="Z22" s="5"/>
-      <c r="AA22" s="16"/>
+      <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
+      <c r="AD22" s="16"/>
       <c r="AE22" s="16"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="16"/>
+      <c r="AF22" s="16"/>
+      <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
-      <c r="AI22" s="16"/>
+      <c r="AI22" s="5"/>
       <c r="AJ22" s="5"/>
       <c r="AK22" s="5"/>
       <c r="AL22" s="5"/>
@@ -1522,15 +1530,15 @@
       <c r="AN22" s="5"/>
       <c r="AO22" s="5"/>
       <c r="AP22" s="5"/>
-      <c r="AQ22" s="16"/>
-      <c r="AR22" s="5"/>
-      <c r="AS22" s="16"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="20"/>
+      <c r="AS22" s="5"/>
       <c r="AT22" s="5"/>
       <c r="AU22" s="5"/>
-      <c r="AV22" s="5"/>
+      <c r="AV22" s="16"/>
       <c r="AW22" s="16"/>
     </row>
-    <row r="23" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1547,22 +1555,22 @@
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="6"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
       <c r="T23" s="16"/>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
+      <c r="X23" s="20"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="16"/>
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
       <c r="AJ23" s="5"/>
@@ -1573,14 +1581,14 @@
       <c r="AO23" s="5"/>
       <c r="AP23" s="5"/>
       <c r="AQ23" s="5"/>
-      <c r="AR23" s="16"/>
+      <c r="AR23" s="5"/>
       <c r="AS23" s="5"/>
       <c r="AT23" s="5"/>
-      <c r="AU23" s="5"/>
+      <c r="AU23" s="16"/>
       <c r="AV23" s="16"/>
-      <c r="AW23" s="5"/>
-    </row>
-    <row r="24" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW23" s="16"/>
+    </row>
+    <row r="24" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1597,27 +1605,27 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="8"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="11"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="11"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
       <c r="AK24" s="16"/>
-      <c r="AL24" s="5"/>
+      <c r="AL24" s="16"/>
       <c r="AM24" s="16"/>
       <c r="AN24" s="5"/>
       <c r="AO24" s="5"/>
@@ -1627,10 +1635,10 @@
       <c r="AS24" s="5"/>
       <c r="AT24" s="5"/>
       <c r="AU24" s="5"/>
-      <c r="AV24" s="5"/>
+      <c r="AV24" s="16"/>
       <c r="AW24" s="16"/>
     </row>
-    <row r="25" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1647,28 +1655,28 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
-      <c r="R25" s="16"/>
+      <c r="R25" s="20"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
       <c r="AJ25" s="16"/>
-      <c r="AK25" s="5"/>
+      <c r="AK25" s="16"/>
       <c r="AL25" s="16"/>
-      <c r="AM25" s="5"/>
+      <c r="AM25" s="16"/>
       <c r="AN25" s="16"/>
       <c r="AO25" s="5"/>
       <c r="AP25" s="5"/>
@@ -1677,10 +1685,10 @@
       <c r="AS25" s="5"/>
       <c r="AT25" s="5"/>
       <c r="AU25" s="5"/>
-      <c r="AV25" s="16"/>
-      <c r="AW25" s="5"/>
-    </row>
-    <row r="26" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV25" s="5"/>
+      <c r="AW25" s="20"/>
+    </row>
+    <row r="26" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1697,40 +1705,40 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
       <c r="T26" s="5"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="16"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
-      <c r="AD26" s="16"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="5"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
+      <c r="AK26" s="16"/>
+      <c r="AL26" s="16"/>
       <c r="AM26" s="16"/>
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
       <c r="AP26" s="5"/>
-      <c r="AQ26" s="16"/>
+      <c r="AQ26" s="5"/>
       <c r="AR26" s="5"/>
-      <c r="AS26" s="16"/>
+      <c r="AS26" s="5"/>
       <c r="AT26" s="5"/>
       <c r="AU26" s="5"/>
-      <c r="AV26" s="5"/>
+      <c r="AV26" s="16"/>
       <c r="AW26" s="16"/>
     </row>
-    <row r="27" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="8"/>
       <c r="C27" s="6"/>
@@ -1747,40 +1755,40 @@
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="2"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
-      <c r="AC27" s="16"/>
+      <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
-      <c r="AE27" s="16"/>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
       <c r="AJ27" s="5"/>
       <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
+      <c r="AL27" s="20"/>
       <c r="AM27" s="5"/>
-      <c r="AN27" s="16"/>
+      <c r="AN27" s="5"/>
       <c r="AO27" s="5"/>
       <c r="AP27" s="5"/>
       <c r="AQ27" s="5"/>
-      <c r="AR27" s="16"/>
+      <c r="AR27" s="5"/>
       <c r="AS27" s="5"/>
       <c r="AT27" s="5"/>
-      <c r="AU27" s="5"/>
+      <c r="AU27" s="16"/>
       <c r="AV27" s="16"/>
-      <c r="AW27" s="5"/>
-    </row>
-    <row r="28" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW27" s="16"/>
+    </row>
+    <row r="28" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="8"/>
       <c r="C28" s="6"/>
@@ -1798,24 +1806,24 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="R28" s="16"/>
-      <c r="S28" s="5"/>
+      <c r="S28" s="16"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="16"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
-      <c r="AJ28" s="16"/>
+      <c r="AJ28" s="5"/>
       <c r="AK28" s="5"/>
       <c r="AL28" s="5"/>
       <c r="AM28" s="5"/>
@@ -1827,10 +1835,10 @@
       <c r="AS28" s="5"/>
       <c r="AT28" s="5"/>
       <c r="AU28" s="5"/>
-      <c r="AV28" s="5"/>
+      <c r="AV28" s="16"/>
       <c r="AW28" s="16"/>
     </row>
-    <row r="29" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="8"/>
@@ -1847,24 +1855,24 @@
       <c r="N29" s="8"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="R29" s="5"/>
+      <c r="R29" s="20"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="16"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
-      <c r="AI29" s="16"/>
+      <c r="AI29" s="5"/>
       <c r="AJ29" s="5"/>
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
@@ -1872,15 +1880,15 @@
       <c r="AN29" s="5"/>
       <c r="AO29" s="5"/>
       <c r="AP29" s="5"/>
-      <c r="AQ29" s="5"/>
-      <c r="AR29" s="5"/>
-      <c r="AS29" s="5"/>
+      <c r="AQ29" s="16"/>
+      <c r="AR29" s="16"/>
+      <c r="AS29" s="16"/>
       <c r="AT29" s="5"/>
       <c r="AU29" s="5"/>
-      <c r="AV29" s="16"/>
-      <c r="AW29" s="5"/>
-    </row>
-    <row r="30" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV29" s="5"/>
+      <c r="AW29" s="20"/>
+    </row>
+    <row r="30" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="8"/>
@@ -1897,40 +1905,40 @@
       <c r="N30" s="5"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="16"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
-      <c r="AC30" s="16"/>
+      <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
-      <c r="AH30" s="16"/>
+      <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
-      <c r="AJ30" s="16"/>
+      <c r="AJ30" s="5"/>
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
-      <c r="AM30" s="16"/>
+      <c r="AM30" s="5"/>
       <c r="AN30" s="5"/>
       <c r="AO30" s="5"/>
-      <c r="AP30" s="5"/>
+      <c r="AP30" s="16"/>
       <c r="AQ30" s="16"/>
-      <c r="AR30" s="5"/>
+      <c r="AR30" s="16"/>
       <c r="AS30" s="16"/>
-      <c r="AT30" s="5"/>
+      <c r="AT30" s="16"/>
       <c r="AU30" s="5"/>
-      <c r="AV30" s="5"/>
+      <c r="AV30" s="16"/>
       <c r="AW30" s="16"/>
     </row>
-    <row r="31" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="8"/>
       <c r="C31" s="6"/>
@@ -1947,10 +1955,10 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="5"/>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
@@ -1972,15 +1980,15 @@
       <c r="AN31" s="5"/>
       <c r="AO31" s="5"/>
       <c r="AP31" s="5"/>
-      <c r="AQ31" s="5"/>
+      <c r="AQ31" s="16"/>
       <c r="AR31" s="16"/>
-      <c r="AS31" s="5"/>
+      <c r="AS31" s="16"/>
       <c r="AT31" s="5"/>
-      <c r="AU31" s="5"/>
+      <c r="AU31" s="16"/>
       <c r="AV31" s="16"/>
-      <c r="AW31" s="5"/>
-    </row>
-    <row r="32" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW31" s="16"/>
+    </row>
+    <row r="32" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="8"/>
       <c r="C32" s="6"/>
@@ -1997,8 +2005,8 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
@@ -2023,48 +2031,48 @@
       <c r="AO32" s="5"/>
       <c r="AP32" s="5"/>
       <c r="AQ32" s="5"/>
-      <c r="AR32" s="5"/>
+      <c r="AR32" s="20"/>
       <c r="AS32" s="5"/>
       <c r="AT32" s="5"/>
       <c r="AU32" s="5"/>
-      <c r="AV32" s="5"/>
-      <c r="AW32" s="5"/>
+      <c r="AV32" s="16"/>
+      <c r="AW32" s="16"/>
     </row>
     <row r="33" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="R33" s="5"/>
+      <c r="R33" s="20"/>
       <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
+      <c r="AI33" s="16"/>
+      <c r="AJ33" s="16"/>
+      <c r="AK33" s="16"/>
       <c r="AL33" s="5"/>
       <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
-      <c r="AP33" s="5"/>
+      <c r="AN33" s="16"/>
+      <c r="AO33" s="16"/>
+      <c r="AP33" s="16"/>
       <c r="AQ33" s="5"/>
       <c r="AR33" s="5"/>
-      <c r="AS33" s="5"/>
-      <c r="AT33" s="5"/>
-      <c r="AU33" s="5"/>
+      <c r="AS33" s="16"/>
+      <c r="AT33" s="16"/>
+      <c r="AU33" s="16"/>
       <c r="AV33" s="5"/>
-      <c r="AW33" s="5"/>
+      <c r="AW33" s="20"/>
     </row>
     <row r="34" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
@@ -2083,6 +2091,36 @@
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="12"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="12"/>
+      <c r="AL34" s="12"/>
+      <c r="AM34" s="12"/>
+      <c r="AN34" s="12"/>
+      <c r="AO34" s="12"/>
+      <c r="AP34" s="12"/>
+      <c r="AQ34" s="12"/>
+      <c r="AR34" s="12"/>
+      <c r="AS34" s="12"/>
+      <c r="AT34" s="12"/>
+      <c r="AU34" s="12"/>
     </row>
     <row r="35" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
@@ -2101,6 +2139,36 @@
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="12"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="12"/>
+      <c r="AL35" s="12"/>
+      <c r="AM35" s="12"/>
+      <c r="AN35" s="12"/>
+      <c r="AO35" s="12"/>
+      <c r="AP35" s="12"/>
+      <c r="AQ35" s="12"/>
+      <c r="AR35" s="12"/>
+      <c r="AS35" s="12"/>
+      <c r="AT35" s="12"/>
+      <c r="AU35" s="12"/>
     </row>
     <row r="36" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
@@ -2119,6 +2187,36 @@
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="12"/>
+      <c r="AJ36" s="12"/>
+      <c r="AK36" s="12"/>
+      <c r="AL36" s="12"/>
+      <c r="AM36" s="12"/>
+      <c r="AN36" s="12"/>
+      <c r="AO36" s="12"/>
+      <c r="AP36" s="12"/>
+      <c r="AQ36" s="12"/>
+      <c r="AR36" s="12"/>
+      <c r="AS36" s="12"/>
+      <c r="AT36" s="12"/>
+      <c r="AU36" s="12"/>
     </row>
     <row r="37" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>

--- a/sprites/land/mapDesign.xlsx
+++ b/sprites/land/mapDesign.xlsx
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD29" sqref="AD29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5703125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/sprites/land/mapDesign.xlsx
+++ b/sprites/land/mapDesign.xlsx
@@ -23,6 +23,10 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
@@ -41,7 +45,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,7 +138,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF663300"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -151,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -174,12 +184,18 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF663300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -456,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5703125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2075,29 +2091,6 @@
       <c r="AW33" s="20"/>
     </row>
     <row r="34" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
@@ -2123,29 +2116,6 @@
       <c r="AU34" s="12"/>
     </row>
     <row r="35" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
@@ -2171,29 +2141,6 @@
       <c r="AU35" s="12"/>
     </row>
     <row r="36" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
@@ -2222,401 +2169,577 @@
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
       <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
     </row>
     <row r="38" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
     </row>
     <row r="39" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
     </row>
     <row r="40" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
     </row>
     <row r="41" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
       <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
       <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
     </row>
     <row r="42" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="22"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
     </row>
     <row r="43" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="22"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20"/>
     </row>
     <row r="44" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="22"/>
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
     </row>
     <row r="45" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="22"/>
       <c r="K45" s="11"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
     </row>
     <row r="46" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
     </row>
     <row r="47" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
     </row>
     <row r="48" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-    </row>
-    <row r="49" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+    </row>
+    <row r="49" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-    </row>
-    <row r="50" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+    </row>
+    <row r="50" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-    </row>
-    <row r="51" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+    </row>
+    <row r="51" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="20"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-    </row>
-    <row r="52" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20"/>
+      <c r="X51" s="20"/>
+    </row>
+    <row r="52" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-    </row>
-    <row r="53" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
+    </row>
+    <row r="53" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="20"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="22"/>
       <c r="K53" s="11"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-    </row>
-    <row r="54" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20"/>
+      <c r="X53" s="20"/>
+    </row>
+    <row r="54" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="22"/>
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-    </row>
-    <row r="55" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20"/>
+      <c r="X54" s="20"/>
+    </row>
+    <row r="55" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="22"/>
       <c r="K55" s="11"/>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
       <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-    </row>
-    <row r="56" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="20"/>
+      <c r="X55" s="20"/>
+    </row>
+    <row r="56" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="22"/>
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
-    </row>
-    <row r="57" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="20"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="22"/>
+    </row>
+    <row r="57" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
       <c r="F57" s="20"/>
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
       <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
-    </row>
-    <row r="58" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="20"/>
+      <c r="X57" s="22"/>
+    </row>
+    <row r="58" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
       <c r="N58" s="11"/>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
-    </row>
-    <row r="59" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="20"/>
+      <c r="U58" s="20"/>
+      <c r="V58" s="20"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="11"/>
+    </row>
+    <row r="59" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
@@ -2624,121 +2747,137 @@
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
       <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
       <c r="N59" s="11"/>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
-    </row>
-    <row r="60" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="11"/>
+    </row>
+    <row r="60" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
       <c r="N60" s="11"/>
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
-    </row>
-    <row r="61" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-    </row>
-    <row r="62" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-    </row>
-    <row r="63" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-    </row>
-    <row r="64" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="22"/>
+      <c r="U60" s="22"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+    </row>
+    <row r="61" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+    </row>
+    <row r="62" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+    </row>
+    <row r="63" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+    </row>
+    <row r="64" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
     </row>
     <row r="65" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
     </row>
     <row r="67" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>

--- a/sprites/land/mapDesign.xlsx
+++ b/sprites/land/mapDesign.xlsx
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5703125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -736,7 +732,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="6"/>
@@ -784,7 +780,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="6"/>
@@ -831,7 +827,7 @@
     <row r="8" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -841,7 +837,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="5"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -880,7 +876,7 @@
     </row>
     <row r="9" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -929,7 +925,7 @@
       <c r="AW9" s="9"/>
     </row>
     <row r="10" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -940,7 +936,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="8"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -990,7 +986,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="8"/>
       <c r="M11" s="5"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1190,7 +1186,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="5"/>
+      <c r="L15" s="8"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -1229,7 +1225,7 @@
       <c r="AW15" s="4"/>
     </row>
     <row r="16" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1240,7 +1236,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="5"/>
+      <c r="L16" s="8"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -1280,7 +1276,7 @@
     </row>
     <row r="17" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="6"/>
@@ -1290,7 +1286,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="5"/>
+      <c r="L17" s="8"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -1300,7 +1296,7 @@
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="6"/>
@@ -1354,7 +1350,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="6"/>
@@ -1405,7 +1401,7 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="6"/>
@@ -1455,7 +1451,7 @@
     <row r="21" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="6"/>
@@ -1505,7 +1501,7 @@
       <c r="AY21" s="12"/>
     </row>
     <row r="22" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="6"/>
@@ -1564,7 +1560,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="5"/>
+      <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -1614,12 +1610,12 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="5"/>
+      <c r="J24" s="8"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
+      <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
@@ -1665,7 +1661,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="5"/>
+      <c r="K25" s="8"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -1716,7 +1712,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="5"/>
+      <c r="L26" s="8"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
@@ -1755,7 +1751,7 @@
       <c r="AW26" s="16"/>
     </row>
     <row r="27" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1767,7 +1763,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="6"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="5"/>
+      <c r="M27" s="8"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="2"/>
@@ -1856,7 +1852,7 @@
     </row>
     <row r="29" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="6"/>
       <c r="E29" s="2"/>
@@ -1867,7 +1863,7 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="8"/>
-      <c r="M29" s="5"/>
+      <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -1906,7 +1902,7 @@
     </row>
     <row r="30" spans="1:51" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="6"/>
       <c r="E30" s="1"/>
@@ -1916,7 +1912,7 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="5"/>
+      <c r="L30" s="8"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="8"/>
@@ -1963,7 +1959,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="5"/>
+      <c r="I31" s="8"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -2011,7 +2007,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="5"/>
+      <c r="G32" s="8"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
